--- a/Matriz Rastreabilidade.xlsx
+++ b/Matriz Rastreabilidade.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sebastiao\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\OneDrive\Documentos\GitHub\IA\api\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08110A56-E41B-4A15-89DB-F93690C68468}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69820315-B27F-4A5D-B2E0-EE9B24645086}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="49">
   <si>
     <t>Descrição</t>
   </si>
@@ -53,9 +53,6 @@
   </si>
   <si>
     <t>testDadosAuthOK</t>
-  </si>
-  <si>
-    <t>testUsernameEmFalta</t>
   </si>
   <si>
     <t>UserCreate</t>
@@ -172,6 +169,27 @@
   </si>
   <si>
     <t>Ecomenda não existe</t>
+  </si>
+  <si>
+    <t>test without token and valid id</t>
+  </si>
+  <si>
+    <t>test with token and invalid id</t>
+  </si>
+  <si>
+    <t>test with token and valid id</t>
+  </si>
+  <si>
+    <t>test with invalid token</t>
+  </si>
+  <si>
+    <t>token invalido</t>
+  </si>
+  <si>
+    <t>Invalid or expired token</t>
+  </si>
+  <si>
+    <t>test with invalid fields</t>
   </si>
 </sst>
 </file>
@@ -211,7 +229,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -234,26 +252,72 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -535,10 +599,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -552,320 +616,385 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A2" s="2">
+      <c r="A2" s="5">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="4" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="6">
+        <v>2</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="C4" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="78" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="78" x14ac:dyDescent="0.3">
+      <c r="A7" s="7"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="8"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="6">
+        <v>3</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="7"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="78" x14ac:dyDescent="0.3">
+      <c r="A11" s="7"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="78" x14ac:dyDescent="0.3">
+      <c r="A12" s="7"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="8"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="6">
+        <v>4</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="7"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="7"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="8"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="6">
+        <v>5</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="7"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A20" s="7"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A21" s="7"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="8"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="6">
         <v>6</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="2">
-        <v>2</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="78" x14ac:dyDescent="0.3">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="78" x14ac:dyDescent="0.3">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="4" t="s">
+      <c r="B23" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="7"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="2">
-        <v>3</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="78" x14ac:dyDescent="0.3">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="78" x14ac:dyDescent="0.3">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" s="4" t="s">
+      <c r="D24" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E24" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E11" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="2">
-        <v>4</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D13" s="5" t="s">
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="7"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="8"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="D26" s="3" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="2">
-        <v>5</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="2">
-        <v>6</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E20" s="4" t="s">
+      <c r="E26" s="3" t="s">
         <v>41</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>42</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="B9:B13"/>
+    <mergeCell ref="A9:A13"/>
+    <mergeCell ref="B4:B8"/>
+    <mergeCell ref="A4:A8"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:B3"/>
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="B4:B7"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="A12:A14"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="B15:B18"/>
-    <mergeCell ref="A15:A18"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="B8:B11"/>
+    <mergeCell ref="B18:B22"/>
+    <mergeCell ref="A18:A22"/>
+    <mergeCell ref="B23:B26"/>
+    <mergeCell ref="A23:A26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Matriz Rastreabilidade.xlsx
+++ b/Matriz Rastreabilidade.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\OneDrive\Documentos\GitHub\IA\api\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9b3cfa793b141eba/Engenharia Informática/3º Ano/2º Semestre/Engenharia de Software II/Trabalho Prático/api/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69820315-B27F-4A5D-B2E0-EE9B24645086}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{69820315-B27F-4A5D-B2E0-EE9B24645086}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8E40964A-F878-455D-8A9B-D4C691290B35}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
@@ -221,12 +221,54 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="5">
@@ -293,30 +335,96 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -602,7 +710,7 @@
   <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -616,27 +724,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="30" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A2" s="5">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="3" t="s">
@@ -650,8 +758,8 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
       <c r="C3" s="3" t="s">
         <v>48</v>
       </c>
@@ -663,338 +771,338 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="6">
+      <c r="A4" s="5">
         <v>2</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="6" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="7"/>
       <c r="B5" s="7"/>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="6" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="78" x14ac:dyDescent="0.3">
       <c r="A6" s="7"/>
       <c r="B6" s="7"/>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="6" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="78" x14ac:dyDescent="0.3">
       <c r="A7" s="7"/>
       <c r="B7" s="7"/>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="6" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="8"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="3" t="s">
+      <c r="A8" s="9"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="6" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="6">
+      <c r="A9" s="10">
         <v>3</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="11" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="7"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="3" t="s">
+      <c r="A10" s="12"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="11" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="78" x14ac:dyDescent="0.3">
-      <c r="A11" s="7"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="3" t="s">
+      <c r="A11" s="12"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="11" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="78" x14ac:dyDescent="0.3">
-      <c r="A12" s="7"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="3" t="s">
+      <c r="A12" s="12"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E12" s="11" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="8"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="3" t="s">
+      <c r="A13" s="14"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="E13" s="11" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="6">
+      <c r="A14" s="15">
         <v>4</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="E14" s="16" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="7"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="3" t="s">
+      <c r="A15" s="17"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="E15" s="16" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="7"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="3" t="s">
+      <c r="A16" s="17"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="E16" s="16" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="8"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="3" t="s">
+      <c r="A17" s="19"/>
+      <c r="B17" s="19"/>
+      <c r="C17" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D17" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="E17" s="16" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="6">
+      <c r="A18" s="20">
         <v>5</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D18" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="E18" s="21" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="7"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="3" t="s">
+      <c r="A19" s="22"/>
+      <c r="B19" s="22"/>
+      <c r="C19" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="D19" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="E19" s="3" t="s">
+      <c r="E19" s="21" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A20" s="7"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="3" t="s">
+      <c r="A20" s="22"/>
+      <c r="B20" s="22"/>
+      <c r="C20" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="D20" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="E20" s="3" t="s">
+      <c r="E20" s="21" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A21" s="7"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="3" t="s">
+      <c r="A21" s="22"/>
+      <c r="B21" s="22"/>
+      <c r="C21" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="D21" s="4" t="s">
+      <c r="D21" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="E21" s="3" t="s">
+      <c r="E21" s="21" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="8"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="3" t="s">
+      <c r="A22" s="24"/>
+      <c r="B22" s="24"/>
+      <c r="C22" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="D22" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="E22" s="3" t="s">
+      <c r="E22" s="21" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="6">
+      <c r="A23" s="25">
         <v>6</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B23" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C23" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="D23" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="E23" s="3" t="s">
+      <c r="E23" s="26" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="7"/>
-      <c r="B24" s="7"/>
-      <c r="C24" s="3" t="s">
+      <c r="A24" s="27"/>
+      <c r="B24" s="27"/>
+      <c r="C24" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="D24" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="E24" s="3" t="s">
+      <c r="E24" s="26" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="7"/>
-      <c r="B25" s="7"/>
-      <c r="C25" s="3" t="s">
+      <c r="A25" s="27"/>
+      <c r="B25" s="27"/>
+      <c r="C25" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="D25" s="4" t="s">
+      <c r="D25" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="E25" s="3" t="s">
+      <c r="E25" s="26" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="8"/>
-      <c r="B26" s="8"/>
-      <c r="C26" s="3" t="s">
+      <c r="A26" s="29"/>
+      <c r="B26" s="29"/>
+      <c r="C26" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="D26" s="3" t="s">
+      <c r="D26" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="E26" s="3" t="s">
+      <c r="E26" s="26" t="s">
         <v>41</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B18:B22"/>
+    <mergeCell ref="A18:A22"/>
+    <mergeCell ref="B23:B26"/>
+    <mergeCell ref="A23:A26"/>
     <mergeCell ref="B14:B17"/>
     <mergeCell ref="A14:A17"/>
     <mergeCell ref="B9:B13"/>
     <mergeCell ref="A9:A13"/>
     <mergeCell ref="B4:B8"/>
     <mergeCell ref="A4:A8"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="B18:B22"/>
-    <mergeCell ref="A18:A22"/>
-    <mergeCell ref="B23:B26"/>
-    <mergeCell ref="A23:A26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Matriz Rastreabilidade.xlsx
+++ b/Matriz Rastreabilidade.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9b3cfa793b141eba/Engenharia Informática/3º Ano/2º Semestre/Engenharia de Software II/Trabalho Prático/api/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\OneDrive\Documentos\GitHub\IA\api\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{69820315-B27F-4A5D-B2E0-EE9B24645086}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8E40964A-F878-455D-8A9B-D4C691290B35}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0BBEA7B-1158-4136-A1A3-A24481A4CBFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="52">
   <si>
     <t>Descrição</t>
   </si>
@@ -190,6 +190,15 @@
   </si>
   <si>
     <t>test with invalid fields</t>
+  </si>
+  <si>
+    <t>Test with token and existing email</t>
+  </si>
+  <si>
+    <t>user email already exist</t>
+  </si>
+  <si>
+    <t>Email já em uso</t>
   </si>
 </sst>
 </file>
@@ -340,91 +349,91 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -707,10 +716,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -724,368 +733,381 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="D1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="30" t="s">
+      <c r="E1" s="14" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A2" s="2">
+      <c r="A2" s="15">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="3" t="s">
+      <c r="A3" s="15"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="5">
+      <c r="A4" s="28">
         <v>2</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="4" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="7"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="6" t="s">
+      <c r="A5" s="29"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="78" x14ac:dyDescent="0.3">
-      <c r="A6" s="7"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="6" t="s">
+      <c r="A6" s="29"/>
+      <c r="B6" s="29"/>
+      <c r="C6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="78" x14ac:dyDescent="0.3">
-      <c r="A7" s="7"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="6" t="s">
+      <c r="A7" s="29"/>
+      <c r="B7" s="29"/>
+      <c r="C7" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="4" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="9"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="6" t="s">
+      <c r="A8" s="29"/>
+      <c r="B8" s="29"/>
+      <c r="C8" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="30"/>
+      <c r="B9" s="30"/>
+      <c r="C9" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D9" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E9" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="10">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="25">
         <v>3</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B10" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C10" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="D10" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="E9" s="11" t="s">
+      <c r="E10" s="6" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="12"/>
-      <c r="B10" s="12"/>
-      <c r="C10" s="11" t="s">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="26"/>
+      <c r="B11" s="26"/>
+      <c r="C11" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="D11" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="11" t="s">
+      <c r="E11" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="78" x14ac:dyDescent="0.3">
-      <c r="A11" s="12"/>
-      <c r="B11" s="12"/>
-      <c r="C11" s="11" t="s">
+    <row r="12" spans="1:5" ht="78" x14ac:dyDescent="0.3">
+      <c r="A12" s="26"/>
+      <c r="B12" s="26"/>
+      <c r="C12" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="13" t="s">
+      <c r="D12" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="11" t="s">
+      <c r="E12" s="6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="78" x14ac:dyDescent="0.3">
-      <c r="A12" s="12"/>
-      <c r="B12" s="12"/>
-      <c r="C12" s="11" t="s">
+    <row r="13" spans="1:5" ht="78" x14ac:dyDescent="0.3">
+      <c r="A13" s="26"/>
+      <c r="B13" s="26"/>
+      <c r="C13" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="13" t="s">
+      <c r="D13" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E12" s="11" t="s">
+      <c r="E13" s="6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="14"/>
-      <c r="B13" s="14"/>
-      <c r="C13" s="11" t="s">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="27"/>
+      <c r="B14" s="27"/>
+      <c r="C14" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="11" t="s">
+      <c r="D14" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E13" s="11" t="s">
+      <c r="E14" s="6" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="15">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="22">
         <v>4</v>
       </c>
-      <c r="B14" s="15" t="s">
+      <c r="B15" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="16" t="s">
+      <c r="C15" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="D14" s="16" t="s">
+      <c r="D15" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="E14" s="16" t="s">
+      <c r="E15" s="8" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="17"/>
-      <c r="B15" s="17"/>
-      <c r="C15" s="16" t="s">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="23"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="D15" s="16" t="s">
+      <c r="D16" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="E15" s="16" t="s">
+      <c r="E16" s="8" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="17"/>
-      <c r="B16" s="17"/>
-      <c r="C16" s="16" t="s">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="23"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="D16" s="18" t="s">
+      <c r="D17" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="E16" s="16" t="s">
+      <c r="E17" s="8" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="19"/>
-      <c r="B17" s="19"/>
-      <c r="C17" s="16" t="s">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="24"/>
+      <c r="B18" s="24"/>
+      <c r="C18" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="D17" s="16" t="s">
+      <c r="D18" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="E17" s="16" t="s">
+      <c r="E18" s="8" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="20">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="16">
         <v>5</v>
       </c>
-      <c r="B18" s="20" t="s">
+      <c r="B19" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="21" t="s">
+      <c r="C19" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D18" s="21" t="s">
+      <c r="D19" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="E18" s="21" t="s">
+      <c r="E19" s="10" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="22"/>
-      <c r="B19" s="22"/>
-      <c r="C19" s="21" t="s">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="17"/>
+      <c r="B20" s="17"/>
+      <c r="C20" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="D19" s="21" t="s">
+      <c r="D20" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E19" s="21" t="s">
+      <c r="E20" s="10" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A20" s="22"/>
-      <c r="B20" s="22"/>
-      <c r="C20" s="21" t="s">
+    <row r="21" spans="1:5" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A21" s="17"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D20" s="23" t="s">
+      <c r="D21" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="E20" s="21" t="s">
+      <c r="E21" s="10" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A21" s="22"/>
-      <c r="B21" s="22"/>
-      <c r="C21" s="21" t="s">
+    <row r="22" spans="1:5" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A22" s="17"/>
+      <c r="B22" s="17"/>
+      <c r="C22" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D21" s="23" t="s">
+      <c r="D22" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="E21" s="21" t="s">
+      <c r="E22" s="10" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="24"/>
-      <c r="B22" s="24"/>
-      <c r="C22" s="21" t="s">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="18"/>
+      <c r="B23" s="18"/>
+      <c r="C23" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="D22" s="21" t="s">
+      <c r="D23" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="E22" s="21" t="s">
+      <c r="E23" s="10" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="19">
         <v>6</v>
       </c>
-      <c r="B23" s="25" t="s">
+      <c r="B24" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="C23" s="26" t="s">
+      <c r="C24" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="D23" s="26" t="s">
+      <c r="D24" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="E23" s="26" t="s">
+      <c r="E24" s="12" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="27"/>
-      <c r="B24" s="27"/>
-      <c r="C24" s="26" t="s">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="20"/>
+      <c r="B25" s="20"/>
+      <c r="C25" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="D24" s="26" t="s">
+      <c r="D25" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="E24" s="26" t="s">
+      <c r="E25" s="12" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="27"/>
-      <c r="B25" s="27"/>
-      <c r="C25" s="26" t="s">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="20"/>
+      <c r="B26" s="20"/>
+      <c r="C26" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="D25" s="28" t="s">
+      <c r="D26" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="E25" s="26" t="s">
+      <c r="E26" s="12" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="29"/>
-      <c r="B26" s="29"/>
-      <c r="C26" s="26" t="s">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="21"/>
+      <c r="B27" s="21"/>
+      <c r="C27" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="D26" s="26" t="s">
+      <c r="D27" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="E26" s="26" t="s">
+      <c r="E27" s="12" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1093,16 +1115,16 @@
   <mergeCells count="12">
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:B3"/>
-    <mergeCell ref="B18:B22"/>
-    <mergeCell ref="A18:A22"/>
-    <mergeCell ref="B23:B26"/>
-    <mergeCell ref="A23:A26"/>
-    <mergeCell ref="B14:B17"/>
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="B9:B13"/>
-    <mergeCell ref="A9:A13"/>
-    <mergeCell ref="B4:B8"/>
-    <mergeCell ref="A4:A8"/>
+    <mergeCell ref="B19:B23"/>
+    <mergeCell ref="A19:A23"/>
+    <mergeCell ref="B24:B27"/>
+    <mergeCell ref="A24:A27"/>
+    <mergeCell ref="B15:B18"/>
+    <mergeCell ref="A15:A18"/>
+    <mergeCell ref="B10:B14"/>
+    <mergeCell ref="A10:A14"/>
+    <mergeCell ref="B4:B9"/>
+    <mergeCell ref="A4:A9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Matriz Rastreabilidade.xlsx
+++ b/Matriz Rastreabilidade.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\OneDrive\Documentos\GitHub\IA\api\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucas\Documents\GitHub\esii\api\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0BBEA7B-1158-4136-A1A3-A24481A4CBFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4BD88A2-1006-48FE-AF4F-334B90B539A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="59">
   <si>
     <t>Descrição</t>
   </si>
@@ -199,6 +199,27 @@
   </si>
   <si>
     <t>Email já em uso</t>
+  </si>
+  <si>
+    <t>Aplicação</t>
+  </si>
+  <si>
+    <t>Métodos HTTP Inválidos</t>
+  </si>
+  <si>
+    <t>URLs Inválidos</t>
+  </si>
+  <si>
+    <t>url: localhost:3000/endpointerrado</t>
+  </si>
+  <si>
+    <t>Endpoint não existe!</t>
+  </si>
+  <si>
+    <t>url: localhost:3000/api/user/1 metodo: DELETE</t>
+  </si>
+  <si>
+    <t>Access Denied</t>
   </si>
 </sst>
 </file>
@@ -230,7 +251,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -276,6 +297,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="1" tint="0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -344,7 +371,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -434,6 +461,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -716,23 +749,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E27"/>
+  <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.296875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="24.296875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="39.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="29.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="11.19921875" style="1"/>
+    <col min="1" max="1" width="12.25" style="1" customWidth="1"/>
+    <col min="2" max="2" width="24.25" style="1" customWidth="1"/>
+    <col min="3" max="4" width="39.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="11.25" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>4</v>
       </c>
@@ -749,7 +781,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A2" s="15">
         <v>1</v>
       </c>
@@ -766,7 +798,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="15"/>
       <c r="B3" s="15"/>
       <c r="C3" s="2" t="s">
@@ -779,7 +811,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="28">
         <v>2</v>
       </c>
@@ -796,7 +828,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="29"/>
       <c r="B5" s="29"/>
       <c r="C5" s="4" t="s">
@@ -809,7 +841,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="78" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A6" s="29"/>
       <c r="B6" s="29"/>
       <c r="C6" s="4" t="s">
@@ -822,7 +854,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="78" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A7" s="29"/>
       <c r="B7" s="29"/>
       <c r="C7" s="4" t="s">
@@ -835,7 +867,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="29"/>
       <c r="B8" s="29"/>
       <c r="C8" s="4" t="s">
@@ -848,7 +880,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="30"/>
       <c r="B9" s="30"/>
       <c r="C9" s="4" t="s">
@@ -861,7 +893,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="25">
         <v>3</v>
       </c>
@@ -878,7 +910,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="26"/>
       <c r="B11" s="26"/>
       <c r="C11" s="6" t="s">
@@ -891,7 +923,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="78" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A12" s="26"/>
       <c r="B12" s="26"/>
       <c r="C12" s="6" t="s">
@@ -904,7 +936,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="78" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A13" s="26"/>
       <c r="B13" s="26"/>
       <c r="C13" s="6" t="s">
@@ -917,7 +949,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="27"/>
       <c r="B14" s="27"/>
       <c r="C14" s="6" t="s">
@@ -930,7 +962,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="22">
         <v>4</v>
       </c>
@@ -947,7 +979,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="23"/>
       <c r="B16" s="23"/>
       <c r="C16" s="8" t="s">
@@ -960,7 +992,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="23"/>
       <c r="B17" s="23"/>
       <c r="C17" s="8" t="s">
@@ -973,7 +1005,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="24"/>
       <c r="B18" s="24"/>
       <c r="C18" s="8" t="s">
@@ -986,7 +1018,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="16">
         <v>5</v>
       </c>
@@ -1003,7 +1035,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="17"/>
       <c r="B20" s="17"/>
       <c r="C20" s="10" t="s">
@@ -1016,7 +1048,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" ht="63" x14ac:dyDescent="0.25">
       <c r="A21" s="17"/>
       <c r="B21" s="17"/>
       <c r="C21" s="10" t="s">
@@ -1029,7 +1061,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" ht="63" x14ac:dyDescent="0.25">
       <c r="A22" s="17"/>
       <c r="B22" s="17"/>
       <c r="C22" s="10" t="s">
@@ -1042,7 +1074,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="18"/>
       <c r="B23" s="18"/>
       <c r="C23" s="10" t="s">
@@ -1055,7 +1087,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="19">
         <v>6</v>
       </c>
@@ -1072,7 +1104,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="20"/>
       <c r="B25" s="20"/>
       <c r="C25" s="12" t="s">
@@ -1085,7 +1117,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="20"/>
       <c r="B26" s="20"/>
       <c r="C26" s="12" t="s">
@@ -1098,7 +1130,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="21"/>
       <c r="B27" s="21"/>
       <c r="C27" s="12" t="s">
@@ -1111,8 +1143,40 @@
         <v>41</v>
       </c>
     </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="31">
+        <v>7</v>
+      </c>
+      <c r="B28" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="C28" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="D28" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="E28" s="32" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="31"/>
+      <c r="B29" s="31"/>
+      <c r="C29" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="D29" s="32" t="s">
+        <v>55</v>
+      </c>
+      <c r="E29" s="32" t="s">
+        <v>56</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="14">
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="A28:A29"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="B19:B23"/>
@@ -1127,5 +1191,6 @@
     <mergeCell ref="A4:A9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Matriz Rastreabilidade.xlsx
+++ b/Matriz Rastreabilidade.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucas\Documents\GitHub\esii\api\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4BD88A2-1006-48FE-AF4F-334B90B539A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5638E227-8AF3-426D-8EE9-6207508AEE67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Folha1" sheetId="1" r:id="rId1"/>
+    <sheet name="Black-Box" sheetId="1" r:id="rId1"/>
+    <sheet name="White-Box" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="150000"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="101">
   <si>
     <t>Descrição</t>
   </si>
@@ -201,25 +202,153 @@
     <t>Email já em uso</t>
   </si>
   <si>
-    <t>Aplicação</t>
-  </si>
-  <si>
-    <t>Métodos HTTP Inválidos</t>
-  </si>
-  <si>
-    <t>URLs Inválidos</t>
-  </si>
-  <si>
-    <t>url: localhost:3000/endpointerrado</t>
-  </si>
-  <si>
-    <t>Endpoint não existe!</t>
-  </si>
-  <si>
-    <t>url: localhost:3000/api/user/1 metodo: DELETE</t>
-  </si>
-  <si>
-    <t>Access Denied</t>
+    <t>UserDatabaseStub</t>
+  </si>
+  <si>
+    <t>CheckPermission</t>
+  </si>
+  <si>
+    <t>Testes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dados </t>
+  </si>
+  <si>
+    <t>Resultado</t>
+  </si>
+  <si>
+    <t>Funções/Ficheiros</t>
+  </si>
+  <si>
+    <t>Tipo de teste</t>
+  </si>
+  <si>
+    <t>CreateUser</t>
+  </si>
+  <si>
+    <t>Cobertura de condições multiplas</t>
+  </si>
+  <si>
+    <t>deve retornar erro se o campo name estiver ausente</t>
+  </si>
+  <si>
+    <t>deve retornar erro se o campo email estiver ausente</t>
+  </si>
+  <si>
+    <t>deve retornar erro se o campo role estiver ausente</t>
+  </si>
+  <si>
+    <t>deve retornar erro se o campo password estiver ausente</t>
+  </si>
+  <si>
+    <t>email: 'test@example.com', role: 'user', password: 'password123'</t>
+  </si>
+  <si>
+    <t>name: 'Test User', role: 'user', password: 'password123'</t>
+  </si>
+  <si>
+    <t>name: 'Test User', email: 'test@example.com', password: 'password123'</t>
+  </si>
+  <si>
+    <t>name: 'Test User', email: 'test@example.com', role: 'user'</t>
+  </si>
+  <si>
+    <t>success: false, message: "Todos os campos são necessários."</t>
+  </si>
+  <si>
+    <t>Role não existe</t>
+  </si>
+  <si>
+    <t>Compara método com lista</t>
+  </si>
+  <si>
+    <t>Verifica se tem parametro adicional (/:id)</t>
+  </si>
+  <si>
+    <t>Verifica se route existe</t>
+  </si>
+  <si>
+    <t>Verifica se não tem parametro adicional</t>
+  </si>
+  <si>
+    <t>role = "nao_existo", method = null, url = null</t>
+  </si>
+  <si>
+    <t>result = false</t>
+  </si>
+  <si>
+    <t>role = "admin", method = DELETE, url = null</t>
+  </si>
+  <si>
+    <t>result = true</t>
+  </si>
+  <si>
+    <t>role = "admin", method = GET, url = "não_existo"</t>
+  </si>
+  <si>
+    <t>role = "admin", method = POST, url = "/api/user"</t>
+  </si>
+  <si>
+    <t>role = "admin", method = GET, url = "/api/order/1"</t>
+  </si>
+  <si>
+    <t>Cobertura de decisões</t>
+  </si>
+  <si>
+    <t>Cobertura de condições</t>
+  </si>
+  <si>
+    <t>Login with valid user and correct password</t>
+  </si>
+  <si>
+    <t>Login with valid user and incorrect password</t>
+  </si>
+  <si>
+    <t>Login with invalid user</t>
+  </si>
+  <si>
+    <t>email = 'lucasmsebastiao@gmail.com', password = 'senha'</t>
+  </si>
+  <si>
+    <t>email = 'lucasmsebastiao@gmail.com', password = 'wrong_password'</t>
+  </si>
+  <si>
+    <t>email = 'invaliduser@example.com', password = 'senha'</t>
+  </si>
+  <si>
+    <t>success: false, message: "Algum dado esta errado."</t>
+  </si>
+  <si>
+    <t>jwt.verify(result.token, JWT_SECRET).email = 'lucasmsebastiao@gmail.com'</t>
+  </si>
+  <si>
+    <t>Cobertura de decisões/condições</t>
+  </si>
+  <si>
+    <t>POST /api/login</t>
+  </si>
+  <si>
+    <t>should return 401 if credentials are invalid</t>
+  </si>
+  <si>
+    <t>should return a token if credentials are valid</t>
+  </si>
+  <si>
+    <t>.post('/api/login')
+      .send({ email: 'user1', password: 'wrongpassword' })</t>
+  </si>
+  <si>
+    <t>Algum dado esta errado.'</t>
+  </si>
+  <si>
+    <t>.post('/api/login')
+      .send({ email: 'lucasmsebastiao@gmail.com', password: 'senha' }</t>
+  </si>
+  <si>
+    <t>Retorna token</t>
+  </si>
+  <si>
+    <t>Cobertura de instruções</t>
   </si>
 </sst>
 </file>
@@ -251,7 +380,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -302,7 +431,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -371,7 +530,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -415,6 +574,51 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -463,10 +667,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -749,19 +950,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E29"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView zoomScale="75" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.25" style="1" customWidth="1"/>
+    <col min="1" max="1" width="15.75" style="1" customWidth="1"/>
     <col min="2" max="2" width="24.25" style="1" customWidth="1"/>
-    <col min="3" max="4" width="39.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="11.25" style="1"/>
+    <col min="3" max="3" width="100.375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="62.625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="65.125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="62.625" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="11.25" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
@@ -782,10 +985,10 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="15">
+      <c r="A2" s="30">
         <v>1</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="30" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -799,8 +1002,8 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="15"/>
-      <c r="B3" s="15"/>
+      <c r="A3" s="30"/>
+      <c r="B3" s="30"/>
       <c r="C3" s="2" t="s">
         <v>48</v>
       </c>
@@ -812,10 +1015,10 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="28">
+      <c r="A4" s="43">
         <v>2</v>
       </c>
-      <c r="B4" s="28" t="s">
+      <c r="B4" s="43" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="4" t="s">
@@ -829,8 +1032,8 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="29"/>
-      <c r="B5" s="29"/>
+      <c r="A5" s="44"/>
+      <c r="B5" s="44"/>
       <c r="C5" s="4" t="s">
         <v>23</v>
       </c>
@@ -842,8 +1045,8 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="29"/>
-      <c r="B6" s="29"/>
+      <c r="A6" s="44"/>
+      <c r="B6" s="44"/>
       <c r="C6" s="4" t="s">
         <v>13</v>
       </c>
@@ -855,8 +1058,8 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="29"/>
-      <c r="B7" s="29"/>
+      <c r="A7" s="44"/>
+      <c r="B7" s="44"/>
       <c r="C7" s="4" t="s">
         <v>20</v>
       </c>
@@ -868,8 +1071,8 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="29"/>
-      <c r="B8" s="29"/>
+      <c r="A8" s="44"/>
+      <c r="B8" s="44"/>
       <c r="C8" s="4" t="s">
         <v>49</v>
       </c>
@@ -881,8 +1084,8 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="30"/>
-      <c r="B9" s="30"/>
+      <c r="A9" s="45"/>
+      <c r="B9" s="45"/>
       <c r="C9" s="4" t="s">
         <v>22</v>
       </c>
@@ -894,10 +1097,10 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="25">
+      <c r="A10" s="40">
         <v>3</v>
       </c>
-      <c r="B10" s="25" t="s">
+      <c r="B10" s="40" t="s">
         <v>18</v>
       </c>
       <c r="C10" s="6" t="s">
@@ -911,8 +1114,8 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="26"/>
-      <c r="B11" s="26"/>
+      <c r="A11" s="41"/>
+      <c r="B11" s="41"/>
       <c r="C11" s="6" t="s">
         <v>23</v>
       </c>
@@ -924,8 +1127,8 @@
       </c>
     </row>
     <row r="12" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="26"/>
-      <c r="B12" s="26"/>
+      <c r="A12" s="41"/>
+      <c r="B12" s="41"/>
       <c r="C12" s="6" t="s">
         <v>13</v>
       </c>
@@ -937,8 +1140,8 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="26"/>
-      <c r="B13" s="26"/>
+      <c r="A13" s="41"/>
+      <c r="B13" s="41"/>
       <c r="C13" s="6" t="s">
         <v>20</v>
       </c>
@@ -950,8 +1153,8 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="27"/>
-      <c r="B14" s="27"/>
+      <c r="A14" s="42"/>
+      <c r="B14" s="42"/>
       <c r="C14" s="6" t="s">
         <v>21</v>
       </c>
@@ -963,10 +1166,10 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="22">
+      <c r="A15" s="37">
         <v>4</v>
       </c>
-      <c r="B15" s="22" t="s">
+      <c r="B15" s="37" t="s">
         <v>28</v>
       </c>
       <c r="C15" s="8" t="s">
@@ -980,8 +1183,8 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="23"/>
-      <c r="B16" s="23"/>
+      <c r="A16" s="38"/>
+      <c r="B16" s="38"/>
       <c r="C16" s="8" t="s">
         <v>42</v>
       </c>
@@ -993,8 +1196,8 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="23"/>
-      <c r="B17" s="23"/>
+      <c r="A17" s="38"/>
+      <c r="B17" s="38"/>
       <c r="C17" s="8" t="s">
         <v>44</v>
       </c>
@@ -1006,8 +1209,8 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="24"/>
-      <c r="B18" s="24"/>
+      <c r="A18" s="39"/>
+      <c r="B18" s="39"/>
       <c r="C18" s="8" t="s">
         <v>43</v>
       </c>
@@ -1019,10 +1222,10 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="16">
+      <c r="A19" s="31">
         <v>5</v>
       </c>
-      <c r="B19" s="16" t="s">
+      <c r="B19" s="31" t="s">
         <v>36</v>
       </c>
       <c r="C19" s="10" t="s">
@@ -1036,8 +1239,8 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="17"/>
-      <c r="B20" s="17"/>
+      <c r="A20" s="32"/>
+      <c r="B20" s="32"/>
       <c r="C20" s="10" t="s">
         <v>23</v>
       </c>
@@ -1049,8 +1252,8 @@
       </c>
     </row>
     <row r="21" spans="1:5" ht="63" x14ac:dyDescent="0.25">
-      <c r="A21" s="17"/>
-      <c r="B21" s="17"/>
+      <c r="A21" s="32"/>
+      <c r="B21" s="32"/>
       <c r="C21" s="10" t="s">
         <v>13</v>
       </c>
@@ -1062,8 +1265,8 @@
       </c>
     </row>
     <row r="22" spans="1:5" ht="63" x14ac:dyDescent="0.25">
-      <c r="A22" s="17"/>
-      <c r="B22" s="17"/>
+      <c r="A22" s="32"/>
+      <c r="B22" s="32"/>
       <c r="C22" s="10" t="s">
         <v>20</v>
       </c>
@@ -1075,8 +1278,8 @@
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="18"/>
-      <c r="B23" s="18"/>
+      <c r="A23" s="33"/>
+      <c r="B23" s="33"/>
       <c r="C23" s="10" t="s">
         <v>22</v>
       </c>
@@ -1088,10 +1291,10 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="19">
+      <c r="A24" s="34">
         <v>6</v>
       </c>
-      <c r="B24" s="19" t="s">
+      <c r="B24" s="34" t="s">
         <v>35</v>
       </c>
       <c r="C24" s="12" t="s">
@@ -1105,8 +1308,8 @@
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="20"/>
-      <c r="B25" s="20"/>
+      <c r="A25" s="35"/>
+      <c r="B25" s="35"/>
       <c r="C25" s="12" t="s">
         <v>23</v>
       </c>
@@ -1118,8 +1321,8 @@
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="20"/>
-      <c r="B26" s="20"/>
+      <c r="A26" s="35"/>
+      <c r="B26" s="35"/>
       <c r="C26" s="12" t="s">
         <v>33</v>
       </c>
@@ -1131,8 +1334,8 @@
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="21"/>
-      <c r="B27" s="21"/>
+      <c r="A27" s="36"/>
+      <c r="B27" s="36"/>
       <c r="C27" s="12" t="s">
         <v>32</v>
       </c>
@@ -1143,40 +1346,14 @@
         <v>41</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="31">
-        <v>7</v>
-      </c>
-      <c r="B28" s="31" t="s">
-        <v>52</v>
-      </c>
-      <c r="C28" s="32" t="s">
-        <v>53</v>
-      </c>
-      <c r="D28" s="32" t="s">
-        <v>57</v>
-      </c>
-      <c r="E28" s="32" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="31"/>
-      <c r="B29" s="31"/>
-      <c r="C29" s="32" t="s">
-        <v>54</v>
-      </c>
-      <c r="D29" s="32" t="s">
-        <v>55</v>
-      </c>
-      <c r="E29" s="32" t="s">
-        <v>56</v>
-      </c>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="46"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="21"/>
     </row>
   </sheetData>
-  <mergeCells count="14">
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="A28:A29"/>
+  <mergeCells count="12">
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="B19:B23"/>
@@ -1191,6 +1368,309 @@
     <mergeCell ref="A4:A9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F319046-76EB-4B20-90A9-6DEC7568A264}">
+  <dimension ref="A1:F17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="47.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="61.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="64.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="16">
+        <v>1</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="F2" s="26" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="16"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="F3" s="26"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="16"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="F4" s="26"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="16"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="F5" s="26"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="17">
+        <v>2</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="F6" s="27" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="17"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="F7" s="27"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="17"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="F8" s="27"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="17"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="E9" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="F9" s="27"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="17"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="E10" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="F10" s="27"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="18">
+        <v>3</v>
+      </c>
+      <c r="B11" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="D11" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="E11" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="F11" s="28" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="18"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="D12" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="E12" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="F12" s="28"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="23">
+        <v>4</v>
+      </c>
+      <c r="B13" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="D13" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="E13" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="F13" s="29" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="23"/>
+      <c r="B14" s="23"/>
+      <c r="C14" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="D14" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="E14" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="F14" s="29"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="23"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="D15" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="E15" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="F15" s="29"/>
+    </row>
+    <row r="16" spans="1:6" ht="157.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="20">
+        <v>5</v>
+      </c>
+      <c r="B16" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="D16" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="E16" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="F16" s="25" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="173.25" x14ac:dyDescent="0.25">
+      <c r="A17" s="20"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="D17" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="E17" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="F17" s="25"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="F2:F5"/>
+    <mergeCell ref="F6:F10"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="F13:F15"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>